--- a/data/colleges.xlsx
+++ b/data/colleges.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/newuser/Desktop/Projects/covid_colleges/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03FE064-0101-7140-8BFE-F25982EDB5C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B9FAB1-C497-BB47-A65E-F801E7741B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16420" xr2:uid="{1BF9CD78-61A0-A548-87AF-ED68BE43F5FF}"/>
   </bookViews>
@@ -150,9 +150,6 @@
     <t>start_date</t>
   </si>
   <si>
-    <t>snstitution_name</t>
-  </si>
-  <si>
     <t>University of California-Santa Cruz</t>
   </si>
   <si>
@@ -319,6 +316,9 @@
   </si>
   <si>
     <t>www.colorado.edu/</t>
+  </si>
+  <si>
+    <t>institution_name</t>
   </si>
 </sst>
 </file>
@@ -697,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1454EA30-6530-5C4B-8EF9-377C70FB1132}">
   <dimension ref="A1:W20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="V6" sqref="V6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -717,7 +717,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>8</v>
@@ -1152,22 +1152,22 @@
         <v>1321</v>
       </c>
       <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
         <v>42</v>
-      </c>
-      <c r="E8" t="s">
-        <v>43</v>
       </c>
       <c r="F8" t="s">
         <v>2</v>
       </c>
       <c r="G8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" t="s">
         <v>44</v>
-      </c>
-      <c r="H8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" t="s">
-        <v>45</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -1214,10 +1214,10 @@
         <v>1317</v>
       </c>
       <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" t="s">
         <v>46</v>
-      </c>
-      <c r="E9" t="s">
-        <v>47</v>
       </c>
       <c r="F9" t="s">
         <v>2</v>
@@ -1229,7 +1229,7 @@
         <v>3</v>
       </c>
       <c r="I9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -1276,22 +1276,22 @@
         <v>2711</v>
       </c>
       <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
         <v>49</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>50</v>
-      </c>
-      <c r="F10" t="s">
-        <v>51</v>
       </c>
       <c r="G10">
         <v>14853</v>
       </c>
       <c r="H10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" t="s">
         <v>52</v>
-      </c>
-      <c r="I10" t="s">
-        <v>53</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1338,22 +1338,22 @@
         <v>2325</v>
       </c>
       <c r="D11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" t="s">
         <v>54</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>55</v>
-      </c>
-      <c r="F11" t="s">
-        <v>56</v>
       </c>
       <c r="G11">
         <v>48109</v>
       </c>
       <c r="H11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" t="s">
         <v>57</v>
-      </c>
-      <c r="I11" t="s">
-        <v>58</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -1400,22 +1400,22 @@
         <v>3658</v>
       </c>
       <c r="D12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" t="s">
         <v>59</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>60</v>
-      </c>
-      <c r="F12" t="s">
-        <v>61</v>
       </c>
       <c r="G12">
         <v>78705</v>
       </c>
       <c r="H12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" t="s">
         <v>62</v>
-      </c>
-      <c r="I12" t="s">
-        <v>63</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -1462,22 +1462,22 @@
         <v>1536</v>
       </c>
       <c r="D13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" t="s">
         <v>64</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>65</v>
-      </c>
-      <c r="F13" t="s">
-        <v>66</v>
       </c>
       <c r="G13">
         <v>33146</v>
       </c>
       <c r="H13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -1524,22 +1524,22 @@
         <v>2130</v>
       </c>
       <c r="D14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" t="s">
         <v>68</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>69</v>
-      </c>
-      <c r="F14" t="s">
-        <v>70</v>
       </c>
       <c r="G14">
         <v>2215</v>
       </c>
       <c r="H14" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" t="s">
         <v>71</v>
-      </c>
-      <c r="I14" t="s">
-        <v>72</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -1586,22 +1586,22 @@
         <v>2155</v>
       </c>
       <c r="D15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" t="s">
         <v>73</v>
       </c>
-      <c r="E15" t="s">
-        <v>74</v>
-      </c>
       <c r="F15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G15">
         <v>2138</v>
       </c>
       <c r="H15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -1648,22 +1648,22 @@
         <v>1598</v>
       </c>
       <c r="D16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" t="s">
         <v>76</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>77</v>
-      </c>
-      <c r="F16" t="s">
-        <v>78</v>
       </c>
       <c r="G16">
         <v>30602</v>
       </c>
       <c r="H16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -1710,22 +1710,22 @@
         <v>1052</v>
       </c>
       <c r="D17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" t="s">
         <v>80</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>81</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>82</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
+        <v>61</v>
+      </c>
+      <c r="I17" t="s">
         <v>83</v>
-      </c>
-      <c r="H17" t="s">
-        <v>62</v>
-      </c>
-      <c r="I17" t="s">
-        <v>84</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -1772,22 +1772,22 @@
         <v>3379</v>
       </c>
       <c r="D18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" t="s">
         <v>85</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>86</v>
-      </c>
-      <c r="F18" t="s">
-        <v>87</v>
       </c>
       <c r="G18">
         <v>15260</v>
       </c>
       <c r="H18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -1834,22 +1834,22 @@
         <v>1739</v>
       </c>
       <c r="D19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="F19" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="G19" s="4">
         <v>60208</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J19" s="4">
         <v>1</v>
@@ -1896,22 +1896,22 @@
         <v>1370</v>
       </c>
       <c r="D20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" t="s">
         <v>93</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>94</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>95</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
+        <v>56</v>
+      </c>
+      <c r="I20" t="s">
         <v>96</v>
-      </c>
-      <c r="H20" t="s">
-        <v>57</v>
-      </c>
-      <c r="I20" t="s">
-        <v>97</v>
       </c>
       <c r="J20">
         <v>1</v>
